--- a/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>428100</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>409300</v>
+        <v>407850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>448220</v>
+        <v>445727</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7529159134879947</v>
+        <v>0.7529159134879946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7198515019696921</v>
+        <v>0.7173011894663905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7883025973593097</v>
+        <v>0.7839172788668303</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>666</v>
@@ -762,19 +762,19 @@
         <v>378107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>363100</v>
+        <v>364209</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>389941</v>
+        <v>390708</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8077838619847409</v>
+        <v>0.8077838619847408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7757228921483261</v>
+        <v>0.7780907246527085</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8330648223059114</v>
+        <v>0.8347041077634604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1167</v>
@@ -783,19 +783,19 @@
         <v>806207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>783931</v>
+        <v>782097</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>829358</v>
+        <v>827476</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.777690050158071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7562015186673851</v>
+        <v>0.7544327649101018</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8000218970499254</v>
+        <v>0.7982069774424505</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>18124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11432</v>
+        <v>12206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26499</v>
+        <v>27275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03187603105135897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0201065420501375</v>
+        <v>0.02146636217387147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0466052192505895</v>
+        <v>0.04796922655647101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>2251</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5549</v>
+        <v>5238</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.004810026180372293</v>
+        <v>0.004810026180372292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001875697281855635</v>
+        <v>0.001834764367891342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01185530861866005</v>
+        <v>0.0111914601318014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -854,19 +854,19 @@
         <v>20376</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14055</v>
+        <v>13598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28820</v>
+        <v>28851</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01965510932641899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01355801740601421</v>
+        <v>0.01311709697316173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02780096348190474</v>
+        <v>0.02783067989619332</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4145</v>
+        <v>3806</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001341459223612543</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007289576961368465</v>
+        <v>0.006693129676038522</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2151</v>
+        <v>2311</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0009214117607015607</v>
+        <v>0.0009214117607015606</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.004594853594019606</v>
+        <v>0.004937875632645993</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4087</v>
+        <v>4669</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001151798163937738</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003942601312218286</v>
+        <v>0.004504184773221467</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>2515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7991</v>
+        <v>8470</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004424014192368856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001001308840803885</v>
+        <v>0.0009957087894595213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01405401357793764</v>
+        <v>0.01489627166494465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10114</v>
+        <v>9389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004956822819209786</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02160821142258008</v>
+        <v>0.02005837512267515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -996,19 +996,19 @@
         <v>4836</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1673</v>
+        <v>1651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11453</v>
+        <v>12044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004664589502764062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001613955929299279</v>
+        <v>0.001592576648585394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01104802905902542</v>
+        <v>0.01161832104962058</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>10888</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6295</v>
+        <v>6399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18560</v>
+        <v>17770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01914939439105507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01107208209951529</v>
+        <v>0.01125389773438238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03264254438144328</v>
+        <v>0.03125248161953926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1046,19 +1046,19 @@
         <v>7414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3791</v>
+        <v>4314</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12151</v>
+        <v>12687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01583867861788689</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008099765677719157</v>
+        <v>0.009215689376654724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02595962349146673</v>
+        <v>0.02710514222500518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1067,19 +1067,19 @@
         <v>18302</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11960</v>
+        <v>11669</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26248</v>
+        <v>26159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01765453031672013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01153659221102281</v>
+        <v>0.01125623522072627</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02531954354185093</v>
+        <v>0.02523413439283456</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>5524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2383</v>
+        <v>2193</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11862</v>
+        <v>10924</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.009714799817516068</v>
+        <v>0.00971479981751607</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004191763807242308</v>
+        <v>0.003856181365935254</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02086283216006158</v>
+        <v>0.01921202375842066</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5883</v>
+        <v>5776</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.003750325136204554</v>
+        <v>0.003750325136204553</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01256819134368022</v>
+        <v>0.01233986070149258</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1138,19 +1138,19 @@
         <v>7279</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3356</v>
+        <v>3463</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13471</v>
+        <v>14239</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007021702755051927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00323715307964345</v>
+        <v>0.003340923956310288</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01299480839076514</v>
+        <v>0.01373489764904556</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>102675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87424</v>
+        <v>86163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121501</v>
+        <v>120295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1805783878360939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1537561028581977</v>
+        <v>0.1515374075798248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2136889448480827</v>
+        <v>0.2115684023056514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -1188,19 +1188,19 @@
         <v>75800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65244</v>
+        <v>65310</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89979</v>
+        <v>89030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1619388735008839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1393870804581574</v>
+        <v>0.1395270810641827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1922304108220887</v>
+        <v>0.1902020990042646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>264</v>
@@ -1209,19 +1209,19 @@
         <v>178475</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156834</v>
+        <v>159202</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199074</v>
+        <v>201273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1721622197770362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1512860984095543</v>
+        <v>0.1535702805642583</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.19203250093684</v>
+        <v>0.1941534675873095</v>
       </c>
     </row>
     <row r="11">
@@ -1313,19 +1313,19 @@
         <v>1468354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1427080</v>
+        <v>1424861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1505301</v>
+        <v>1507968</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7397422988195125</v>
+        <v>0.7397422988195126</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7189488970294673</v>
+        <v>0.717830627102196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.758355450449116</v>
+        <v>0.7596990807346002</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1912</v>
@@ -1334,19 +1334,19 @@
         <v>1371184</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1344289</v>
+        <v>1343309</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1399822</v>
+        <v>1396049</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8311751955671195</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8148719846850325</v>
+        <v>0.814278332792436</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8485345614662692</v>
+        <v>0.8462476354356889</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3259</v>
@@ -1355,19 +1355,19 @@
         <v>2839538</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2789194</v>
+        <v>2789281</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2885667</v>
+        <v>2890254</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7812418494527662</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7673907437117221</v>
+        <v>0.7674144705751501</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.793933354968941</v>
+        <v>0.7951953409754695</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>152389</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>128637</v>
+        <v>126608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178435</v>
+        <v>179196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07677192346698973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06480619075034294</v>
+        <v>0.06378393205925469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08989380981489678</v>
+        <v>0.09027695504761321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1405,19 +1405,19 @@
         <v>45825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35159</v>
+        <v>35720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57467</v>
+        <v>59229</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0277776896005433</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02131253167743444</v>
+        <v>0.02165253832937552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03483509177951317</v>
+        <v>0.03590307470512748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -1426,19 +1426,19 @@
         <v>198213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171822</v>
+        <v>170751</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225740</v>
+        <v>227094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05453442732060096</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04727345839162309</v>
+        <v>0.0469787332887358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06210786819071583</v>
+        <v>0.06248040449639652</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>3523</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9578</v>
+        <v>9824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001774947458877783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0005650216625658561</v>
+        <v>0.0005692995068199703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004825297738582836</v>
+        <v>0.004949215148421299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1476,19 +1476,19 @@
         <v>4564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8974</v>
+        <v>9069</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002766473846965246</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001234859445788501</v>
+        <v>0.001232113492324603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005440008736596796</v>
+        <v>0.005497524956506548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1497,19 +1497,19 @@
         <v>8087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4370</v>
+        <v>4146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14701</v>
+        <v>14619</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.00222498131988766</v>
+        <v>0.002224981319887659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001202200580205324</v>
+        <v>0.001140822434426208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004044575171896185</v>
+        <v>0.004022098795279165</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>12756</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7349</v>
+        <v>7490</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21860</v>
+        <v>21091</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006426401067702267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003702255389820152</v>
+        <v>0.003773259115783109</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01101281520076985</v>
+        <v>0.01062553404605839</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>8286</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4624</v>
+        <v>4198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14117</v>
+        <v>13306</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.005022632504646908</v>
+        <v>0.005022632504646909</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002803210452632693</v>
+        <v>0.002544615317525065</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.008557545285961293</v>
+        <v>0.008065627757343534</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>26</v>
@@ -1568,19 +1568,19 @@
         <v>21042</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>14144</v>
+        <v>13727</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30797</v>
+        <v>30583</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005789258784868375</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003891458704871294</v>
+        <v>0.003776815594017081</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008473081710318962</v>
+        <v>0.008414190699825316</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>90624</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73423</v>
+        <v>73215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110952</v>
+        <v>109828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04565533046445572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03698955370982931</v>
+        <v>0.03688495987228246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05589649548300848</v>
+        <v>0.05533041645795726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -1618,19 +1618,19 @@
         <v>41778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31822</v>
+        <v>32377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53657</v>
+        <v>54009</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02532443190894617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01928949228066652</v>
+        <v>0.0196261561825056</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03252562049084558</v>
+        <v>0.03273869381954876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>163</v>
@@ -1639,19 +1639,19 @@
         <v>132401</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111450</v>
+        <v>112982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154749</v>
+        <v>157682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03642754501702596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03066326418569661</v>
+        <v>0.03108461484518929</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04257620221559933</v>
+        <v>0.04338299945414473</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>28383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18557</v>
+        <v>18591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43877</v>
+        <v>42513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01429931805081068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009348827526810825</v>
+        <v>0.00936619762025462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02210483418797199</v>
+        <v>0.02141781000477011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1689,19 +1689,19 @@
         <v>10222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5833</v>
+        <v>5756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17366</v>
+        <v>16446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006196418945728322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003535717605378816</v>
+        <v>0.00348888136446214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01052690894273396</v>
+        <v>0.00996914935196656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1710,19 +1710,19 @@
         <v>38606</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27660</v>
+        <v>26576</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54367</v>
+        <v>52645</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01062157531653257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007610186787553284</v>
+        <v>0.007311786231256154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0149579621613421</v>
+        <v>0.01448425528215507</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>228924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>199882</v>
+        <v>201380</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>260337</v>
+        <v>261127</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1153297806716514</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1006984793687057</v>
+        <v>0.1014533632511212</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1311552393942605</v>
+        <v>0.1315531044511912</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>245</v>
@@ -1760,19 +1760,19 @@
         <v>167835</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146472</v>
+        <v>146360</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>189805</v>
+        <v>190793</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1017371576260507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08878716935824756</v>
+        <v>0.08871970390090726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1150548777766908</v>
+        <v>0.1156535602032871</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>474</v>
@@ -1781,19 +1781,19 @@
         <v>396759</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>361414</v>
+        <v>361480</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>433444</v>
+        <v>434126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1091603627883182</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09943577793139513</v>
+        <v>0.09945384892620872</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1192534244240432</v>
+        <v>0.1194409979875846</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>409869</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>382312</v>
+        <v>381029</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>436083</v>
+        <v>435040</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.618381627591971</v>
+        <v>0.6183816275919711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5768061904770165</v>
+        <v>0.5748696991715002</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.657931088185425</v>
+        <v>0.656358640462535</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>702</v>
@@ -1906,19 +1906,19 @@
         <v>500443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>478933</v>
+        <v>478378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>519469</v>
+        <v>517842</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7416256737866821</v>
+        <v>0.741625673786682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7097497757590647</v>
+        <v>0.7089260976872571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7698209621752898</v>
+        <v>0.7674094042658564</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1092</v>
@@ -1927,19 +1927,19 @@
         <v>910311</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>879018</v>
+        <v>876998</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>944239</v>
+        <v>941002</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6805556798338315</v>
+        <v>0.6805556798338316</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6571607416755713</v>
+        <v>0.6556504338528178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7059206382410538</v>
+        <v>0.703500271093904</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>98091</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>80545</v>
+        <v>82452</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>118676</v>
+        <v>119269</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1479922089157915</v>
+        <v>0.1479922089157916</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.121520305983467</v>
+        <v>0.1243983653384062</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1790506563258016</v>
+        <v>0.1799445385914766</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -1977,19 +1977,19 @@
         <v>61252</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50210</v>
+        <v>49060</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73169</v>
+        <v>75764</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09077235477131514</v>
+        <v>0.09077235477131512</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07440883354979495</v>
+        <v>0.07270351905714836</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1084316846289999</v>
+        <v>0.1122777128472643</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>184</v>
@@ -1998,19 +1998,19 @@
         <v>159343</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>138152</v>
+        <v>138998</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>182177</v>
+        <v>181797</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1191259852669043</v>
+        <v>0.1191259852669044</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1032836219981771</v>
+        <v>0.1039159626042095</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.136196836285528</v>
+        <v>0.1359131462688734</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>12483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7134</v>
+        <v>7335</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20141</v>
+        <v>21472</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01883390904966505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01076308575791191</v>
+        <v>0.01106624525470807</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03038711482623135</v>
+        <v>0.03239606641046783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2048,19 +2048,19 @@
         <v>2426</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6837</v>
+        <v>7312</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.003594636271356459</v>
+        <v>0.003594636271356458</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009750776288480869</v>
+        <v>0.0009758639080388933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01013248376313861</v>
+        <v>0.01083521868380021</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2069,19 +2069,19 @@
         <v>14909</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8697</v>
+        <v>8706</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22961</v>
+        <v>24140</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01114601360074736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006501922764289553</v>
+        <v>0.006509031987752908</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01716610250322476</v>
+        <v>0.01804752443496046</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>18468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10308</v>
+        <v>10558</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33826</v>
+        <v>34152</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02786371151125808</v>
+        <v>0.02786371151125809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01555183186370174</v>
+        <v>0.01592978953767745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05103382102402248</v>
+        <v>0.05152661593503362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2119,19 +2119,19 @@
         <v>9897</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5733</v>
+        <v>5476</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16488</v>
+        <v>16051</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01466671581291881</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00849550405431637</v>
+        <v>0.008115334009627018</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02443412674520282</v>
+        <v>0.02378598011831012</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -2140,19 +2140,19 @@
         <v>28365</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18836</v>
+        <v>19351</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42555</v>
+        <v>44596</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02120610227723599</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01408163275471889</v>
+        <v>0.0144668403933181</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03181470053249048</v>
+        <v>0.03334024125972683</v>
       </c>
     </row>
     <row r="24">
@@ -2169,19 +2169,19 @@
         <v>24455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16877</v>
+        <v>16538</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34361</v>
+        <v>36740</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03689670541090496</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02546219342972691</v>
+        <v>0.02495113437632489</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05184115985661902</v>
+        <v>0.05543075374154071</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -2190,19 +2190,19 @@
         <v>19797</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13133</v>
+        <v>13598</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28366</v>
+        <v>28919</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02933860299086468</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01946247992382356</v>
+        <v>0.02015083875343408</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04203710316459151</v>
+        <v>0.04285558177128614</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -2211,19 +2211,19 @@
         <v>44253</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33339</v>
+        <v>32928</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>59365</v>
+        <v>56485</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03308380029116797</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02492428434332132</v>
+        <v>0.02461719908928874</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04438174214178675</v>
+        <v>0.04222864771262003</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>13983</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7144</v>
+        <v>7967</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22772</v>
+        <v>22387</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0210970435298132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01077778474053939</v>
+        <v>0.01202026707424199</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03435721516387779</v>
+        <v>0.03377594898240283</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2261,19 +2261,19 @@
         <v>4772</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1952</v>
+        <v>2038</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9489</v>
+        <v>9478</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.00707236661692007</v>
+        <v>0.007072366616920069</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002893211372274991</v>
+        <v>0.003020644807186565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01406182057538056</v>
+        <v>0.01404613332449168</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -2282,19 +2282,19 @@
         <v>18756</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11824</v>
+        <v>11528</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27825</v>
+        <v>28391</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01402188637634048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008840000241306212</v>
+        <v>0.008618730541812326</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02080227018481123</v>
+        <v>0.02122524483013726</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>85459</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69539</v>
+        <v>69339</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104521</v>
+        <v>104502</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.128934793990596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1049154362597516</v>
+        <v>0.1046135241372458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1576940389201671</v>
+        <v>0.1576653585198797</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>104</v>
@@ -2332,19 +2332,19 @@
         <v>76204</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61486</v>
+        <v>62360</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>92940</v>
+        <v>91992</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1129296497499428</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09111839976110427</v>
+        <v>0.09241347683763085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1377313606815797</v>
+        <v>0.1363268332866744</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>189</v>
@@ -2353,19 +2353,19 @@
         <v>161663</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>139764</v>
+        <v>139114</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186088</v>
+        <v>184827</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1208605323537723</v>
+        <v>0.1208605323537724</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1044887265368849</v>
+        <v>0.1040027298216907</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1391210441313458</v>
+        <v>0.1381777455094174</v>
       </c>
     </row>
     <row r="27">
@@ -2457,19 +2457,19 @@
         <v>2306323</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2245371</v>
+        <v>2246921</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2356726</v>
+        <v>2356037</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7170617725304311</v>
+        <v>0.7170617725304309</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6981112182115728</v>
+        <v>0.6985930265758361</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7327326288713845</v>
+        <v>0.7325185350376274</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3280</v>
@@ -2478,19 +2478,19 @@
         <v>2249734</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2212957</v>
+        <v>2214038</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2285611</v>
+        <v>2283003</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8056157965352617</v>
+        <v>0.8056157965352618</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7924462538214506</v>
+        <v>0.7928333694100118</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8184632964778981</v>
+        <v>0.8175293280741389</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5518</v>
@@ -2499,19 +2499,19 @@
         <v>4556058</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4494869</v>
+        <v>4490967</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4616938</v>
+        <v>4616285</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7582160839426823</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7480331028432512</v>
+        <v>0.7473837027579251</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7683478507805988</v>
+        <v>0.768239053555504</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>268604</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>241995</v>
+        <v>237688</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>308491</v>
+        <v>300877</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0835118945944654</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07523908908050507</v>
+        <v>0.07389992633501191</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09591322558938674</v>
+        <v>0.09354618474077706</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>151</v>
@@ -2549,19 +2549,19 @@
         <v>109329</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>91506</v>
+        <v>93513</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126099</v>
+        <v>128631</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03914987704746691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03276770900317025</v>
+        <v>0.03348659166107538</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04515530394009561</v>
+        <v>0.04606191410262392</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>430</v>
@@ -2570,19 +2570,19 @@
         <v>377932</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>344127</v>
+        <v>346708</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>413605</v>
+        <v>418253</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06289523368580541</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05726938191939874</v>
+        <v>0.05769888504432162</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06883184530855821</v>
+        <v>0.06960543310674946</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>16769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10004</v>
+        <v>9933</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26753</v>
+        <v>26138</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.005213736038948952</v>
+        <v>0.00521373603894895</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003110254075266366</v>
+        <v>0.00308843066945683</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.008317933348954224</v>
+        <v>0.008126486787261317</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2620,19 +2620,19 @@
         <v>7421</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3938</v>
+        <v>4051</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12867</v>
+        <v>12939</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002657327097432284</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001410118943246934</v>
+        <v>0.001450625448697359</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004607426595259085</v>
+        <v>0.004633515405455852</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>29</v>
@@ -2641,19 +2641,19 @@
         <v>24190</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15858</v>
+        <v>16114</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34925</v>
+        <v>34982</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.00402567879526569</v>
+        <v>0.004025678795265689</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002639155820435811</v>
+        <v>0.002681609938389321</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00581222998205873</v>
+        <v>0.005821613914102218</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>33740</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23715</v>
+        <v>24247</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50662</v>
+        <v>51539</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01049010561845982</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007373189069192108</v>
+        <v>0.007538796264688508</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01575142304979868</v>
+        <v>0.01602419226543263</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2691,19 +2691,19 @@
         <v>20503</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13262</v>
+        <v>14172</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29175</v>
+        <v>30514</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.007341985050069607</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00474889529755241</v>
+        <v>0.005074760597146307</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01044746426678035</v>
+        <v>0.01092683678544775</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>61</v>
@@ -2712,19 +2712,19 @@
         <v>54243</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40988</v>
+        <v>39996</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>71078</v>
+        <v>70514</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009027058222355307</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006821238471328459</v>
+        <v>0.006656177466995065</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01182879914740102</v>
+        <v>0.01173492740167817</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>125967</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>105172</v>
+        <v>107231</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>147421</v>
+        <v>149895</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03916465948391416</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03269922741823512</v>
+        <v>0.0333394682277003</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0458347477478886</v>
+        <v>0.04660389563874521</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>105</v>
@@ -2762,19 +2762,19 @@
         <v>68989</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>56925</v>
+        <v>56786</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>84370</v>
+        <v>85488</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02470444227614804</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02038458569257302</v>
+        <v>0.02033480704078618</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03021220958862882</v>
+        <v>0.03061256255392046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>250</v>
@@ -2783,19 +2783,19 @@
         <v>194956</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>170350</v>
+        <v>170268</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>221343</v>
+        <v>220906</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03244446479208695</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02834948797961248</v>
+        <v>0.02833584874630057</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03683581984936971</v>
+        <v>0.03676294814868764</v>
       </c>
     </row>
     <row r="33">
@@ -2812,19 +2812,19 @@
         <v>47891</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>35901</v>
+        <v>35037</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>64728</v>
+        <v>63630</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01488970287593131</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0111620952407413</v>
+        <v>0.01089338637740611</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02012451358092879</v>
+        <v>0.01978330502973417</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>24</v>
@@ -2833,19 +2833,19 @@
         <v>16750</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>11003</v>
+        <v>10934</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25283</v>
+        <v>24547</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.005998076139560451</v>
+        <v>0.005998076139560452</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003940178685581437</v>
+        <v>0.003915286513847873</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.009053818178627073</v>
+        <v>0.00879011957283719</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>71</v>
@@ -2854,19 +2854,19 @@
         <v>64641</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>50420</v>
+        <v>50355</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>84184</v>
+        <v>83807</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01075743695371705</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.008390902720831192</v>
+        <v>0.008380070334928116</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01400980270112735</v>
+        <v>0.01394704219157778</v>
       </c>
     </row>
     <row r="34">
@@ -2883,19 +2883,19 @@
         <v>417058</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>377734</v>
+        <v>378718</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>455395</v>
+        <v>458197</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1296681288578493</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1174417925378055</v>
+        <v>0.1177478153292475</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1415873559752769</v>
+        <v>0.142458720779489</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>486</v>
@@ -2904,19 +2904,19 @@
         <v>319839</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>292478</v>
+        <v>292425</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>350525</v>
+        <v>349578</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1145324958540609</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1047346060906683</v>
+        <v>0.104715701455756</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1255209317150141</v>
+        <v>0.1251816948742512</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>927</v>
@@ -2925,19 +2925,19 @@
         <v>736898</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>691168</v>
+        <v>691668</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>784553</v>
+        <v>788917</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1226340436080872</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1150236430806033</v>
+        <v>0.1151069231182539</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1305647502045064</v>
+        <v>0.1312909743317279</v>
       </c>
     </row>
     <row r="35">
